--- a/Master NIEM Document/Mapping_Spreadsheets/08 Combining Domains - Augmentations.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/08 Combining Domains - Augmentations.xlsx
@@ -5,15 +5,15 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - CrashDriverReport Com" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Crash Driver Report" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
-  <si>
-    <t>CrashDriverReport Complete</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+  <si>
+    <t>Crash Driver Report</t>
   </si>
   <si>
     <t>Class</t>
@@ -82,9 +82,6 @@
     <t>A human being.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
@@ -103,7 +100,7 @@
     <t>A date a person was born.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate</t>
+    <t>nc:Person/nc:PersonBirthDate</t>
   </si>
   <si>
     <t>nc:DateRepresentation</t>
@@ -112,7 +109,7 @@
     <t>A data concept for a representation of a date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]</t>
   </si>
   <si>
     <t>nc:Date</t>
@@ -124,7 +121,7 @@
     <t>A full date.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
+    <t>nc:Person/nc:PersonBirthDate/[nc:DateRepresentation]/nc:Date</t>
   </si>
   <si>
     <t>nc:PersonName</t>
@@ -136,7 +133,7 @@
     <t>A combination of names and/or titles by which a person is known.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName</t>
+    <t>nc:Person/nc:PersonName</t>
   </si>
   <si>
     <t>First Name</t>
@@ -154,7 +151,7 @@
     <t>A first name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonGivenName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonGivenName</t>
   </si>
   <si>
     <t>Middle Name</t>
@@ -175,7 +172,7 @@
     <t>0..many</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonMiddleName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonMiddleName</t>
   </si>
   <si>
     <t>Last Name</t>
@@ -190,7 +187,7 @@
     <t>A last name or family name of a person.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/nc:Person/nc:PersonName/nc:PersonSurName</t>
+    <t>nc:Person/nc:PersonName/nc:PersonSurName</t>
   </si>
   <si>
     <t>Crash</t>
@@ -208,19 +205,16 @@
     <t>A traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash</t>
-  </si>
-  <si>
     <t>nc:ActivityDate</t>
   </si>
   <si>
     <t>A date of an activity.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate/[nc:DateRepresentation]</t>
+    <t>j:Crash/nc:ActivityDate</t>
+  </si>
+  <si>
+    <t>j:Crash/nc:ActivityDate/[nc:DateRepresentation]</t>
   </si>
   <si>
     <t>Crash Date</t>
@@ -229,7 +223,7 @@
     <t>The date a crash occurred.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/nc:ActivityDate/[nc:DateRepresentation]/nc:Date</t>
+    <t>j:Crash/nc:ActivityDate/[nc:DateRepresentation]/nc:Date</t>
   </si>
   <si>
     <t>j:CrashVehicle</t>
@@ -241,7 +235,7 @@
     <t>A motor vehicle involved in a traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle</t>
+    <t>j:Crash/j:CrashVehicle</t>
   </si>
   <si>
     <t>Driver</t>
@@ -259,16 +253,19 @@
     <t>A motor vehicle driver involved into a traffic accident.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver</t>
   </si>
   <si>
     <t>nc:RoleOfPerson</t>
   </si>
   <si>
+    <t>reference</t>
+  </si>
+  <si>
     <t>A person of whom the role object is a function.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/nc:RoleOfPerson</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/nc:RoleOfPerson</t>
   </si>
   <si>
     <t>j:DriverLicense</t>
@@ -280,7 +277,7 @@
     <t>A license issued to a person granting driving privileges.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense</t>
   </si>
   <si>
     <t>j:DriverLicenseCardIdentification</t>
@@ -292,7 +289,7 @@
     <t>An identification that is affixed to the raw materials (card stock, laminate, etc.) used in producing driver licenses and ID cards. The numbers are issued by the material's manufacturer and provide a unique reference to a card within a jurisdiction.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification</t>
   </si>
   <si>
     <t>Driver License Number</t>
@@ -310,7 +307,7 @@
     <t>An identifier.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/j:DriverLicenseCardIdentification/nc:IdentificationID</t>
   </si>
   <si>
     <t>j:DriverLicenseAugmentationPoint</t>
@@ -319,7 +316,7 @@
     <t>An augmentation point for DriverLicenseType.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]</t>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]</t>
   </si>
   <si>
     <t>ext:LicenseAugmentation</t>
@@ -331,201 +328,195 @@
     <t>structures:AugmentationType</t>
   </si>
   <si>
+    <t>A definition for a LicenseAugmentation.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation</t>
+  </si>
+  <si>
+    <t>nc:ContactInformation</t>
+  </si>
+  <si>
+    <t>nc:ContactInformationType</t>
+  </si>
+  <si>
+    <t>A set of details about how to contact a person or an organization.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation</t>
+  </si>
+  <si>
+    <t>nc:ContactMeansAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a means of contacting someone.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>An email address.</t>
+  </si>
+  <si>
+    <t>nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>An electronic mailing address by which a person or organization may be contacted.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]/nc:ContactEmailID</t>
+  </si>
+  <si>
+    <t>Injured Person</t>
+  </si>
+  <si>
+    <t>A person injured in a crash.</t>
+  </si>
+  <si>
+    <t>j:CrashPerson</t>
+  </si>
+  <si>
+    <t>j:CrashPersonType</t>
+  </si>
+  <si>
+    <t>A person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
+  </si>
+  <si>
+    <t>j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>nc:InjuryType</t>
+  </si>
+  <si>
+    <t>An injury received by a person involved in a traffic accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
+  </si>
+  <si>
+    <t>Injury Description</t>
+  </si>
+  <si>
+    <t>A description of an injury.</t>
+  </si>
+  <si>
+    <t>nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:TextType</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
+  </si>
+  <si>
+    <t>nc:InjurySeverityAbstract</t>
+  </si>
+  <si>
+    <t>A data concept for a severity of an injury received by a person involved into a Traffic Accident.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]</t>
+  </si>
+  <si>
+    <t>Severity Code</t>
+  </si>
+  <si>
+    <t>A code for how severe an injury was.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>aamva_d20:AccidentSeverityCodeType</t>
+  </si>
+  <si>
+    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
+  </si>
+  <si>
+    <t>j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjurySeverityAbstract]/j:InjurySeverityCode</t>
+  </si>
+  <si>
+    <t>Through Window</t>
+  </si>
+  <si>
+    <t>Whether a person was flung through a window by a crash.</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Injury Privacy Code</t>
+  </si>
+  <si>
+    <t>A code for whether and how the information about an injury was private.</t>
+  </si>
+  <si>
+    <t>Crash Location Coordinates</t>
+  </si>
+  <si>
+    <t>Latitude and longitude of a location.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociationType</t>
+  </si>
+  <si>
+    <t>An association between a person and a charge issued to that person.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/nc:Person</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>A committed offense.</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>j:Charge</t>
+  </si>
+  <si>
+    <t>j:ChargeType</t>
+  </si>
+  <si>
+    <t>A formal allegation that a specific person has committed a specific offense.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/j:Charge</t>
+  </si>
+  <si>
+    <t>j:JuvenileAsAdultIndicator</t>
+  </si>
+  <si>
+    <t>niem-xs:boolean</t>
+  </si>
+  <si>
+    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
+  </si>
+  <si>
     <t>element</t>
   </si>
   <si>
-    <t>A definition for a LicenseAugmentation.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation</t>
-  </si>
-  <si>
-    <t>nc:ContactInformation</t>
-  </si>
-  <si>
-    <t>nc:ContactInformationType</t>
-  </si>
-  <si>
-    <t>A set of details about how to contact a person or an organization.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation</t>
-  </si>
-  <si>
-    <t>nc:ContactMeansAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a means of contacting someone.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>An email address.</t>
-  </si>
-  <si>
-    <t>nc:ContactEmailID</t>
-  </si>
-  <si>
-    <t>An electronic mailing address by which a person or organization may be contacted.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashVehicle/j:CrashDriver/j:DriverLicense/[j:DriverLicenseAugmentationPoint]/ext:LicenseAugmentation/nc:ContactInformation/[nc:ContactMeansAbstract]/nc:ContactEmailID</t>
-  </si>
-  <si>
-    <t>Injured Person</t>
-  </si>
-  <si>
-    <t>A person injured in a crash.</t>
-  </si>
-  <si>
-    <t>j:CrashPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonType</t>
-  </si>
-  <si>
-    <t>A person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/nc:RoleOfPerson</t>
-  </si>
-  <si>
-    <t>j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>nc:InjuryType</t>
-  </si>
-  <si>
-    <t>An injury received by a person involved in a traffic accident.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury</t>
-  </si>
-  <si>
-    <t>Injury Description</t>
-  </si>
-  <si>
-    <t>A description of an injury.</t>
-  </si>
-  <si>
-    <t>nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:TextType</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/nc:InjuryDescriptionText</t>
-  </si>
-  <si>
-    <t>nc:InjuryCategoryAbstract</t>
-  </si>
-  <si>
-    <t>A data concept for a kind of bodily harm or injury.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjuryCategoryAbstract]</t>
-  </si>
-  <si>
-    <t>Severity Code</t>
-  </si>
-  <si>
-    <t>A code for how severe an injury was.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>aamva_d20:AccidentSeverityCodeType</t>
-  </si>
-  <si>
-    <t>A severity of an injury received by a person, such as in a traffic accident or crash.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Crash/j:CrashPerson/j:CrashPersonInjury/[nc:InjuryCategoryAbstract]/j:InjurySeverityCode</t>
-  </si>
-  <si>
-    <t>Through Window</t>
-  </si>
-  <si>
-    <t>Whether a person was flung through a window by a crash.</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Injury Privacy Code</t>
-  </si>
-  <si>
-    <t>A code for whether and how the information about an injury was private.</t>
-  </si>
-  <si>
-    <t>Crash Location Coordinates</t>
-  </si>
-  <si>
-    <t>Latitude and longitude of a location.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociationType</t>
-  </si>
-  <si>
-    <t>An association between a person and a charge issued to that person.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/nc:Person</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>A committed offense.</t>
-  </si>
-  <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>j:Charge</t>
-  </si>
-  <si>
-    <t>j:ChargeType</t>
-  </si>
-  <si>
-    <t>A formal allegation that a specific person has committed a specific offense.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:Charge</t>
-  </si>
-  <si>
-    <t>j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>niem-xs:boolean</t>
-  </si>
-  <si>
-    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>/ext:CrashDriverInfo/j:Charge</t>
-  </si>
-  <si>
     <t>Charge Description</t>
   </si>
   <si>
@@ -538,7 +529,7 @@
     <t>A plain language description of a charge.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Charge/j:ChargeDescriptionText</t>
+    <t>j:Charge/j:ChargeDescriptionText</t>
   </si>
   <si>
     <t>Is Felony</t>
@@ -553,7 +544,7 @@
     <t>True if a charge refers to a felony offense; false otherwise.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Charge/j:ChargeFelonyIndicator</t>
+    <t>j:Charge/j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>j:Metadata</t>
@@ -565,9 +556,6 @@
     <t>Information that further qualifies the kind of data represented.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Metadata</t>
-  </si>
-  <si>
     <t>Is Criminal Information</t>
   </si>
   <si>
@@ -580,7 +568,7 @@
     <t>True if the information specified is classified as criminal information; false if it is not classified as criminal information.</t>
   </si>
   <si>
-    <t>/ext:CrashDriverInfo/j:Metadata/j:CriminalInformationIndicator</t>
+    <t>j:Metadata/j:CriminalInformationIndicator</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2129,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P45"/>
+  <dimension ref="A2:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -2295,7 +2283,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
       <c r="P4" t="s" s="25">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -2303,22 +2291,22 @@
         <v>17</v>
       </c>
       <c r="B5" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="18">
+      <c r="D5" t="s" s="19">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="19">
+      <c r="E5" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s" s="21">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s" s="21">
+      <c r="G5" t="s" s="22">
         <v>27</v>
-      </c>
-      <c r="G5" t="s" s="22">
-        <v>28</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" t="s" s="22">
@@ -2327,7 +2315,7 @@
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
       <c r="L5" t="s" s="24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s" s="22">
         <v>19</v>
@@ -2335,7 +2323,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
       <c r="P5" t="s" s="25">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -2345,17 +2333,17 @@
       <c r="D6" s="17"/>
       <c r="E6" s="28"/>
       <c r="F6" t="s" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" t="s" s="22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" t="s" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s" s="22">
         <v>19</v>
@@ -2363,7 +2351,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" t="s" s="25">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -2373,25 +2361,25 @@
       <c r="D7" s="17"/>
       <c r="E7" s="28"/>
       <c r="F7" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="22">
         <v>34</v>
-      </c>
-      <c r="G7" t="s" s="22">
-        <v>35</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" t="s" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" t="s" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" t="s" s="25">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -2401,10 +2389,10 @@
       <c r="D8" s="17"/>
       <c r="E8" s="28"/>
       <c r="F8" t="s" s="21">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s" s="22">
         <v>38</v>
-      </c>
-      <c r="G8" t="s" s="22">
-        <v>39</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" t="s" s="22">
@@ -2413,7 +2401,7 @@
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" t="s" s="24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s" s="22">
         <v>19</v>
@@ -2421,7 +2409,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" t="s" s="25">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -2429,31 +2417,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="18">
         <v>42</v>
       </c>
-      <c r="C9" t="s" s="18">
+      <c r="D9" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s" s="21">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s" s="21">
+      <c r="G9" t="s" s="22">
         <v>44</v>
-      </c>
-      <c r="G9" t="s" s="22">
-        <v>45</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" t="s" s="24">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s" s="22">
         <v>19</v>
@@ -2461,7 +2449,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" t="s" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -2469,39 +2457,39 @@
         <v>17</v>
       </c>
       <c r="B10" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s" s="18">
         <v>48</v>
       </c>
-      <c r="C10" t="s" s="18">
+      <c r="D10" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s" s="20">
         <v>49</v>
       </c>
-      <c r="D10" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="20">
+      <c r="F10" t="s" s="21">
         <v>50</v>
       </c>
-      <c r="F10" t="s" s="21">
-        <v>51</v>
-      </c>
       <c r="G10" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s" s="22">
         <v>52</v>
-      </c>
-      <c r="M10" t="s" s="22">
-        <v>53</v>
       </c>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
       <c r="P10" t="s" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -2509,31 +2497,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="18">
         <v>55</v>
       </c>
-      <c r="C11" t="s" s="18">
+      <c r="D11" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="21">
         <v>56</v>
       </c>
-      <c r="D11" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s" s="21">
-        <v>57</v>
-      </c>
       <c r="G11" t="s" s="22">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" t="s" s="22">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" t="s" s="24">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s" s="22">
         <v>19</v>
@@ -2541,16 +2529,16 @@
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" t="s" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" t="s" s="18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s" s="19">
         <v>1</v>
@@ -2559,17 +2547,17 @@
         <v>19</v>
       </c>
       <c r="F12" t="s" s="21">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s" s="22">
         <v>62</v>
-      </c>
-      <c r="G12" t="s" s="22">
-        <v>63</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" t="s" s="24">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s" s="22">
         <v>19</v>
@@ -2577,7 +2565,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
       <c r="P12" t="s" s="25">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -2587,19 +2575,19 @@
       <c r="D13" s="17"/>
       <c r="E13" s="28"/>
       <c r="F13" t="s" s="21">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s" s="22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" t="s" s="22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" t="s" s="24">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s" s="22">
         <v>19</v>
@@ -2607,7 +2595,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
       <c r="P13" t="s" s="25">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -2617,17 +2605,17 @@
       <c r="D14" s="17"/>
       <c r="E14" s="28"/>
       <c r="F14" t="s" s="21">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" t="s" s="22">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" t="s" s="24">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" t="s" s="22">
         <v>19</v>
@@ -2635,45 +2623,45 @@
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
       <c r="P14" t="s" s="25">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s" s="19">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="18">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F15" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s" s="22">
         <v>34</v>
-      </c>
-      <c r="G15" t="s" s="22">
-        <v>35</v>
       </c>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" t="s" s="22">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="23"/>
       <c r="L15" t="s" s="24">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
       <c r="P15" t="s" s="25">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -2683,19 +2671,19 @@
       <c r="D16" s="17"/>
       <c r="E16" s="28"/>
       <c r="F16" t="s" s="29">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s" s="30">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" t="s" s="30">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" t="s" s="32">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" t="s" s="30">
         <v>19</v>
@@ -2703,16 +2691,16 @@
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" t="s" s="33">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="16">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" t="s" s="18">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s" s="19">
         <v>1</v>
@@ -2721,19 +2709,19 @@
         <v>19</v>
       </c>
       <c r="F17" t="s" s="29">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="30">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" t="s" s="30">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" t="s" s="32">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s" s="30">
         <v>19</v>
@@ -2741,7 +2729,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" t="s" s="33">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -2751,19 +2739,21 @@
       <c r="D18" s="17"/>
       <c r="E18" s="28"/>
       <c r="F18" t="s" s="29">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="30">
         <v>21</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" t="s" s="30">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="K18" t="s" s="30">
+        <v>82</v>
+      </c>
       <c r="L18" t="s" s="32">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s" s="30">
         <v>19</v>
@@ -2771,7 +2761,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" t="s" s="33">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -2781,19 +2771,19 @@
       <c r="D19" s="17"/>
       <c r="E19" s="28"/>
       <c r="F19" t="s" s="29">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s" s="30">
         <v>86</v>
-      </c>
-      <c r="G19" t="s" s="30">
-        <v>87</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" t="s" s="30">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
       <c r="L19" t="s" s="32">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s" s="30">
         <v>19</v>
@@ -2801,7 +2791,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" t="s" s="33">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" ht="44.05" customHeight="1">
@@ -2811,19 +2801,19 @@
       <c r="D20" s="17"/>
       <c r="E20" s="28"/>
       <c r="F20" t="s" s="29">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s" s="30">
         <v>90</v>
-      </c>
-      <c r="G20" t="s" s="30">
-        <v>91</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" t="s" s="30">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
       <c r="L20" t="s" s="32">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" t="s" s="30">
         <v>19</v>
@@ -2831,39 +2821,39 @@
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" t="s" s="33">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="16">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="C21" t="s" s="18">
         <v>94</v>
       </c>
-      <c r="C21" t="s" s="18">
+      <c r="D21" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s" s="29">
         <v>95</v>
       </c>
-      <c r="D21" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s" s="29">
+      <c r="G21" t="s" s="30">
         <v>96</v>
-      </c>
-      <c r="G21" t="s" s="30">
-        <v>97</v>
       </c>
       <c r="H21" s="31"/>
       <c r="I21" t="s" s="30">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" t="s" s="32">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M21" t="s" s="30">
         <v>19</v>
@@ -2871,7 +2861,7 @@
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" t="s" s="33">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -2881,17 +2871,17 @@
       <c r="D22" s="17"/>
       <c r="E22" s="28"/>
       <c r="F22" t="s" s="29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" t="s" s="30">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" t="s" s="32">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M22" t="s" s="30">
         <v>19</v>
@@ -2899,7 +2889,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
       <c r="P22" t="s" s="33">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -2909,29 +2899,27 @@
       <c r="D23" s="17"/>
       <c r="E23" s="28"/>
       <c r="F23" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s" s="30">
         <v>103</v>
       </c>
-      <c r="G23" t="s" s="30">
+      <c r="H23" t="s" s="30">
         <v>104</v>
-      </c>
-      <c r="H23" t="s" s="30">
-        <v>105</v>
       </c>
       <c r="I23" s="31"/>
       <c r="J23" t="s" s="30">
-        <v>100</v>
-      </c>
-      <c r="K23" t="s" s="30">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K23" s="31"/>
       <c r="L23" t="s" s="32">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" t="s" s="33">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -2941,19 +2929,19 @@
       <c r="D24" s="17"/>
       <c r="E24" s="28"/>
       <c r="F24" t="s" s="29">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s" s="30">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" t="s" s="30">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
       <c r="L24" t="s" s="32">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s" s="30">
         <v>19</v>
@@ -2961,7 +2949,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" t="s" s="33">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -2971,17 +2959,17 @@
       <c r="D25" s="17"/>
       <c r="E25" s="28"/>
       <c r="F25" t="s" s="29">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" t="s" s="30">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
       <c r="L25" t="s" s="32">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s" s="30">
         <v>19</v>
@@ -2989,83 +2977,83 @@
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" t="s" s="33">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="16">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="19">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s" s="18">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s" s="29">
         <v>116</v>
       </c>
-      <c r="C26" t="s" s="18">
-        <v>117</v>
-      </c>
-      <c r="D26" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s" s="29">
-        <v>118</v>
-      </c>
       <c r="G26" t="s" s="30">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" t="s" s="30">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K26" s="31"/>
       <c r="L26" t="s" s="32">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" t="s" s="33">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" t="s" s="18">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s" s="19">
         <v>1</v>
       </c>
       <c r="E27" t="s" s="20">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s" s="21">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s" s="22">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" t="s" s="22">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" t="s" s="24">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M27" t="s" s="22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
       <c r="P27" t="s" s="25">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -3075,19 +3063,21 @@
       <c r="D28" s="17"/>
       <c r="E28" s="28"/>
       <c r="F28" t="s" s="21">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="22">
         <v>21</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" t="s" s="22">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="K28" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L28" t="s" s="24">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" t="s" s="22">
         <v>19</v>
@@ -3095,7 +3085,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
       <c r="P28" t="s" s="25">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -3105,19 +3095,19 @@
       <c r="D29" s="17"/>
       <c r="E29" s="28"/>
       <c r="F29" t="s" s="21">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s" s="22">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" t="s" s="22">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" t="s" s="24">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M29" t="s" s="22">
         <v>19</v>
@@ -3125,39 +3115,39 @@
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" t="s" s="25">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="19">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s" s="18">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s" s="21">
         <v>132</v>
       </c>
-      <c r="C30" t="s" s="18">
+      <c r="G30" t="s" s="22">
         <v>133</v>
-      </c>
-      <c r="D30" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s" s="21">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s" s="22">
-        <v>135</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" t="s" s="22">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
       <c r="L30" t="s" s="24">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M30" t="s" s="22">
         <v>19</v>
@@ -3165,7 +3155,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" t="s" s="25">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -3175,17 +3165,17 @@
       <c r="D31" s="17"/>
       <c r="E31" s="28"/>
       <c r="F31" t="s" s="21">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" t="s" s="22">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" t="s" s="24">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="22">
         <v>19</v>
@@ -3193,59 +3183,59 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" t="s" s="25">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s" s="19">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s" s="18">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s" s="19">
         <v>140</v>
       </c>
-      <c r="C32" t="s" s="18">
+      <c r="E32" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s" s="21">
         <v>141</v>
       </c>
-      <c r="D32" t="s" s="19">
+      <c r="G32" t="s" s="22">
         <v>142</v>
-      </c>
-      <c r="E32" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s" s="21">
-        <v>143</v>
-      </c>
-      <c r="G32" t="s" s="22">
-        <v>144</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" t="s" s="22">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K32" s="23"/>
       <c r="L32" t="s" s="24">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
       <c r="P32" t="s" s="25">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" ht="32.05" customHeight="1">
       <c r="A33" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s" s="19">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s" s="18">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s" s="19">
         <v>147</v>
-      </c>
-      <c r="C33" t="s" s="18">
-        <v>148</v>
-      </c>
-      <c r="D33" t="s" s="19">
-        <v>149</v>
       </c>
       <c r="E33" t="s" s="20">
         <v>19</v>
@@ -3264,16 +3254,16 @@
     </row>
     <row r="34" ht="32.05" customHeight="1">
       <c r="A34" t="s" s="16">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s" s="19">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s" s="18">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s" s="19">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E34" t="s" s="20">
         <v>19</v>
@@ -3292,16 +3282,16 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="16">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s" s="19">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s" s="18">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s" s="19">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s" s="20">
         <v>19</v>
@@ -3319,32 +3309,32 @@
       <c r="P35" s="36"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="16">
-        <v>60</v>
-      </c>
-      <c r="B36" t="s" s="19">
+      <c r="A36" s="26"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="28"/>
+      <c r="F36" t="s" s="21">
         <v>152</v>
       </c>
-      <c r="C36" t="s" s="18">
+      <c r="G36" t="s" s="22">
         <v>153</v>
       </c>
-      <c r="D36" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="23"/>
+      <c r="L36" t="s" s="24">
+        <v>154</v>
+      </c>
+      <c r="M36" t="s" s="22">
+        <v>19</v>
+      </c>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
-      <c r="P36" s="36"/>
+      <c r="P36" t="s" s="25">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" s="26"/>
@@ -3353,17 +3343,21 @@
       <c r="D37" s="17"/>
       <c r="E37" s="28"/>
       <c r="F37" t="s" s="21">
-        <v>154</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s" s="22">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
+      <c r="I37" t="s" s="22">
+        <v>152</v>
+      </c>
       <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
+      <c r="K37" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L37" t="s" s="24">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="M37" t="s" s="22">
         <v>19</v>
@@ -3371,75 +3365,77 @@
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
       <c r="P37" t="s" s="25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="16">
+        <v>156</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" t="s" s="18">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="28"/>
+      <c r="D38" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s" s="20">
+        <v>158</v>
+      </c>
       <c r="F38" t="s" s="21">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="G38" t="s" s="22">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" t="s" s="22">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="K38" t="s" s="22">
+        <v>82</v>
+      </c>
       <c r="L38" t="s" s="24">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="M38" t="s" s="22">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
       <c r="P38" t="s" s="25">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="16">
-        <v>159</v>
-      </c>
+      <c r="A39" s="26"/>
       <c r="B39" s="17"/>
-      <c r="C39" t="s" s="18">
-        <v>160</v>
-      </c>
-      <c r="D39" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s" s="20">
-        <v>161</v>
-      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="28"/>
       <c r="F39" t="s" s="21">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G39" t="s" s="22">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" t="s" s="22">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" t="s" s="24">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M39" t="s" s="22">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
       <c r="P39" t="s" s="25">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -3449,19 +3445,19 @@
       <c r="D40" s="17"/>
       <c r="E40" s="28"/>
       <c r="F40" t="s" s="21">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G40" t="s" s="22">
+        <v>160</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" t="s" s="22">
         <v>167</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" t="s" s="22">
-        <v>154</v>
-      </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
       <c r="L40" t="s" s="24">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M40" t="s" s="22">
         <v>19</v>
@@ -3469,27 +3465,39 @@
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" t="s" s="25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="16">
+        <v>156</v>
+      </c>
+      <c r="B41" t="s" s="19">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s" s="18">
         <v>169</v>
       </c>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="28"/>
+      <c r="D41" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s" s="20">
+        <v>19</v>
+      </c>
       <c r="F41" t="s" s="21">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s" s="22">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="I41" t="s" s="22">
+        <v>159</v>
+      </c>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" t="s" s="24">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M41" t="s" s="22">
         <v>19</v>
@@ -3497,39 +3505,39 @@
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
       <c r="P41" t="s" s="25">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="16">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s" s="19">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s" s="18">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s" s="19">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="E42" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F42" t="s" s="21">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s" s="22">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" t="s" s="22">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" t="s" s="24">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="22">
         <v>19</v>
@@ -3537,39 +3545,27 @@
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
       <c r="P42" t="s" s="25">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="16">
-        <v>159</v>
-      </c>
-      <c r="B43" t="s" s="19">
-        <v>176</v>
-      </c>
-      <c r="C43" t="s" s="18">
-        <v>177</v>
-      </c>
-      <c r="D43" t="s" s="19">
-        <v>149</v>
-      </c>
-      <c r="E43" t="s" s="20">
-        <v>19</v>
-      </c>
+      <c r="A43" s="26"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="28"/>
       <c r="F43" t="s" s="21">
         <v>178</v>
       </c>
       <c r="G43" t="s" s="22">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H43" s="23"/>
-      <c r="I43" t="s" s="22">
-        <v>162</v>
-      </c>
+      <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" t="s" s="24">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M43" t="s" s="22">
         <v>19</v>
@@ -3577,75 +3573,47 @@
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
       <c r="P43" t="s" s="25">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="28"/>
-      <c r="F44" t="s" s="21">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" ht="32.05" customHeight="1">
+      <c r="A44" t="s" s="37">
+        <v>156</v>
+      </c>
+      <c r="B44" t="s" s="38">
         <v>181</v>
       </c>
-      <c r="G44" t="s" s="22">
+      <c r="C44" t="s" s="39">
         <v>182</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" t="s" s="24">
+      <c r="D44" t="s" s="38">
+        <v>147</v>
+      </c>
+      <c r="E44" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s" s="41">
         <v>183</v>
       </c>
-      <c r="M44" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" t="s" s="25">
+      <c r="G44" t="s" s="42">
+        <v>164</v>
+      </c>
+      <c r="H44" s="43"/>
+      <c r="I44" t="s" s="42">
+        <v>178</v>
+      </c>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" t="s" s="44">
         <v>184</v>
       </c>
-    </row>
-    <row r="45" ht="32.05" customHeight="1">
-      <c r="A45" t="s" s="37">
-        <v>159</v>
-      </c>
-      <c r="B45" t="s" s="38">
+      <c r="M44" t="s" s="42">
+        <v>19</v>
+      </c>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" t="s" s="45">
         <v>185</v>
-      </c>
-      <c r="C45" t="s" s="39">
-        <v>186</v>
-      </c>
-      <c r="D45" t="s" s="38">
-        <v>149</v>
-      </c>
-      <c r="E45" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s" s="41">
-        <v>187</v>
-      </c>
-      <c r="G45" t="s" s="42">
-        <v>167</v>
-      </c>
-      <c r="H45" s="43"/>
-      <c r="I45" t="s" s="42">
-        <v>181</v>
-      </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" t="s" s="44">
-        <v>188</v>
-      </c>
-      <c r="M45" t="s" s="42">
-        <v>19</v>
-      </c>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" t="s" s="45">
-        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Master NIEM Document/Mapping_Spreadsheets/08 Combining Domains - Augmentations.xlsx
+++ b/Master NIEM Document/Mapping_Spreadsheets/08 Combining Domains - Augmentations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>Crash Driver Report</t>
   </si>
@@ -481,64 +481,55 @@
     <t>j:PersonChargeAssociation/nc:Person</t>
   </si>
   <si>
+    <t>j:Charge</t>
+  </si>
+  <si>
+    <t>j:ChargeType</t>
+  </si>
+  <si>
+    <t>A formal allegation that a specific person has committed a specific offense.</t>
+  </si>
+  <si>
+    <t>0..1</t>
+  </si>
+  <si>
+    <t>j:PersonChargeAssociation/j:Charge</t>
+  </si>
+  <si>
     <t>Charge</t>
   </si>
   <si>
     <t>A committed offense.</t>
   </si>
   <si>
-    <t>0..1</t>
-  </si>
-  <si>
-    <t>j:Charge</t>
-  </si>
-  <si>
-    <t>j:ChargeType</t>
-  </si>
-  <si>
-    <t>A formal allegation that a specific person has committed a specific offense.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation/j:Charge</t>
-  </si>
-  <si>
-    <t>j:JuvenileAsAdultIndicator</t>
+    <t>element</t>
+  </si>
+  <si>
+    <t>Charge Description</t>
+  </si>
+  <si>
+    <t>A description of a charge.</t>
+  </si>
+  <si>
+    <t>j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>A plain language description of a charge.</t>
+  </si>
+  <si>
+    <t>j:Charge/j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>Is Felony</t>
+  </si>
+  <si>
+    <t>Whether a charge is a felony.</t>
+  </si>
+  <si>
+    <t>j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>niem-xs:boolean</t>
-  </si>
-  <si>
-    <t>True if a juvenile is to be processed as an adult; false otherwise.</t>
-  </si>
-  <si>
-    <t>j:PersonChargeAssociation/j:JuvenileAsAdultIndicator</t>
-  </si>
-  <si>
-    <t>element</t>
-  </si>
-  <si>
-    <t>Charge Description</t>
-  </si>
-  <si>
-    <t>A description of a charge.</t>
-  </si>
-  <si>
-    <t>j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>A plain language description of a charge.</t>
-  </si>
-  <si>
-    <t>j:Charge/j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>Is Felony</t>
-  </si>
-  <si>
-    <t>Whether a charge is a felony.</t>
-  </si>
-  <si>
-    <t>j:ChargeFelonyIndicator</t>
   </si>
   <si>
     <t>True if a charge refers to a felony offense; false otherwise.</t>
@@ -2129,7 +2120,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:P44"/>
+  <dimension ref="A2:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -3369,24 +3360,16 @@
       </c>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="16">
+      <c r="A38" s="26"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="28"/>
+      <c r="F38" t="s" s="21">
         <v>156</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" t="s" s="18">
+      <c r="G38" t="s" s="22">
         <v>157</v>
-      </c>
-      <c r="D38" t="s" s="19">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s" s="20">
-        <v>158</v>
-      </c>
-      <c r="F38" t="s" s="21">
-        <v>159</v>
-      </c>
-      <c r="G38" t="s" s="22">
-        <v>160</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" t="s" s="22">
@@ -3397,37 +3380,45 @@
         <v>82</v>
       </c>
       <c r="L38" t="s" s="24">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M38" t="s" s="22">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
       <c r="P38" t="s" s="25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="16">
+        <v>161</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" t="s" s="18">
         <v>162</v>
       </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="28"/>
+      <c r="D39" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s" s="20">
+        <v>159</v>
+      </c>
       <c r="F39" t="s" s="21">
+        <v>156</v>
+      </c>
+      <c r="G39" t="s" s="22">
+        <v>157</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" t="s" s="22">
         <v>163</v>
       </c>
-      <c r="G39" t="s" s="22">
-        <v>164</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" t="s" s="22">
-        <v>152</v>
-      </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
       <c r="L39" t="s" s="24">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s" s="22">
         <v>19</v>
@@ -3435,29 +3426,39 @@
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
       <c r="P39" t="s" s="25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="16">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s" s="19">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s" s="18">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="21">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="28"/>
-      <c r="F40" t="s" s="21">
-        <v>159</v>
-      </c>
       <c r="G40" t="s" s="22">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="I40" t="s" s="22">
+        <v>156</v>
+      </c>
       <c r="J40" s="23"/>
-      <c r="K40" t="s" s="22">
+      <c r="K40" s="23"/>
+      <c r="L40" t="s" s="24">
         <v>167</v>
-      </c>
-      <c r="L40" t="s" s="24">
-        <v>161</v>
       </c>
       <c r="M40" t="s" s="22">
         <v>19</v>
@@ -3465,39 +3466,39 @@
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" t="s" s="25">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="16">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s" s="19">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s" s="18">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s" s="19">
-        <v>25</v>
+        <v>147</v>
       </c>
       <c r="E41" t="s" s="20">
         <v>19</v>
       </c>
       <c r="F41" t="s" s="21">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s" s="22">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="H41" s="23"/>
       <c r="I41" t="s" s="22">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" t="s" s="24">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M41" t="s" s="22">
         <v>19</v>
@@ -3505,39 +3506,27 @@
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
       <c r="P41" t="s" s="25">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="16">
-        <v>156</v>
-      </c>
-      <c r="B42" t="s" s="19">
-        <v>173</v>
-      </c>
-      <c r="C42" t="s" s="18">
-        <v>174</v>
-      </c>
-      <c r="D42" t="s" s="19">
-        <v>147</v>
-      </c>
-      <c r="E42" t="s" s="20">
-        <v>19</v>
-      </c>
+      <c r="A42" s="26"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="28"/>
       <c r="F42" t="s" s="21">
         <v>175</v>
       </c>
       <c r="G42" t="s" s="22">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H42" s="23"/>
-      <c r="I42" t="s" s="22">
-        <v>159</v>
-      </c>
+      <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" t="s" s="24">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M42" t="s" s="22">
         <v>19</v>
@@ -3545,75 +3534,47 @@
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
       <c r="P42" t="s" s="25">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="28"/>
-      <c r="F43" t="s" s="21">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" ht="32.05" customHeight="1">
+      <c r="A43" t="s" s="37">
+        <v>161</v>
+      </c>
+      <c r="B43" t="s" s="38">
         <v>178</v>
       </c>
-      <c r="G43" t="s" s="22">
+      <c r="C43" t="s" s="39">
         <v>179</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" t="s" s="24">
+      <c r="D43" t="s" s="38">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s" s="41">
         <v>180</v>
       </c>
-      <c r="M43" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" t="s" s="25">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" ht="32.05" customHeight="1">
-      <c r="A44" t="s" s="37">
-        <v>156</v>
-      </c>
-      <c r="B44" t="s" s="38">
+      <c r="G43" t="s" s="42">
+        <v>172</v>
+      </c>
+      <c r="H43" s="43"/>
+      <c r="I43" t="s" s="42">
+        <v>175</v>
+      </c>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" t="s" s="44">
         <v>181</v>
       </c>
-      <c r="C44" t="s" s="39">
+      <c r="M43" t="s" s="42">
+        <v>19</v>
+      </c>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" t="s" s="45">
         <v>182</v>
-      </c>
-      <c r="D44" t="s" s="38">
-        <v>147</v>
-      </c>
-      <c r="E44" t="s" s="40">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s" s="41">
-        <v>183</v>
-      </c>
-      <c r="G44" t="s" s="42">
-        <v>164</v>
-      </c>
-      <c r="H44" s="43"/>
-      <c r="I44" t="s" s="42">
-        <v>178</v>
-      </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" t="s" s="44">
-        <v>184</v>
-      </c>
-      <c r="M44" t="s" s="42">
-        <v>19</v>
-      </c>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" t="s" s="45">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
